--- a/テスト項目/商品情報_db.xlsx
+++ b/テスト項目/商品情報_db.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE78BB-3B9C-4974-AC75-6CA7B7EBEC00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>テスト</t>
   </si>
@@ -44,36 +43,6 @@
   </si>
   <si>
     <t>段原</t>
-  </si>
-  <si>
-    <t>カートの中にある商品の情報をWebページにリスト表示させる</t>
-  </si>
-  <si>
-    <t>カート内にある商品で同じものがあれば個数を表示させる</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>決済するとカート内にある商品がカート内DBから消える</t>
-  </si>
-  <si>
-    <t>決済すると購入者である顧客の所持金が正常に変わる</t>
-  </si>
-  <si>
-    <t>決済完了画面に残高、購入額を表示させる</t>
-  </si>
-  <si>
-    <t>決済時に顧客の所持金が足りていなければ決算されないようにする</t>
-  </si>
-  <si>
-    <t>商品が登録されているかの結果が返ってくる</t>
-  </si>
-  <si>
-    <t>フラグから商品の追加、削除を判断してDBに反映する</t>
-  </si>
-  <si>
-    <t>DBにある画像URLからWeb上に画像を表示させる</t>
   </si>
   <si>
     <t>商品名、値段、バーコード番号、サムネイルURLの登録ができる</t>
@@ -91,11 +60,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>商品名、値段、バーコード番号、サムネイルURLの削除ができる</t>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -120,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,14 +119,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -430,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -467,9 +457,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
@@ -485,9 +475,9 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,150 +485,6 @@
         <v>44189</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/テスト項目/商品情報_db.xlsx
+++ b/テスト項目/商品情報_db.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>テスト</t>
   </si>
   <si>
     <t>確認項目</t>
-  </si>
-  <si>
-    <t>操作手順</t>
   </si>
   <si>
     <t>確認結果</t>
@@ -96,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,28 +116,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -421,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G5"/>
+  <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -432,7 +415,7 @@
     <col min="3" max="3" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,44 +431,39 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44189</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44189</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44189</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
